--- a/小组资料/分工职业.xlsx
+++ b/小组资料/分工职业.xlsx
@@ -107,7 +107,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目测试，搜索歌曲，歌词显示（后期看情况是否添加前进后退）</t>
+    <t>6.30-7.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4-7.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9-7.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.13-7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分工，定下框架，学习完成相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求说明说，搭建网站框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网站框架，前端基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接前后端，完善网页功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,39 +147,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.30-7.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.4-7.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.9-7.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.13-7.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目立项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目分工，定下框架，学习完成相关知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成需求说明说，搭建网站框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成网站框架，前端基本完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接前后端，完善网页功能</t>
+    <t>项目测试，搜索歌曲，歌词显示（后期看情况是否添加前进后退）数据库（如果需要用户登录则添加用户数据库）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,7 +508,7 @@
         <v>6.29</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -545,10 +545,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -565,10 +565,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -582,13 +582,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
